--- a/Tabela_experimentos/tabela_experimentos.xlsx
+++ b/Tabela_experimentos/tabela_experimentos.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Figura 1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Figura 2 a" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Figura 2 b" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Figura 3" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Figura 4" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Figura_1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Figura_2_a" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Figura_2_b" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Figura_3" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Figura_4" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -991,7 +991,7 @@
   <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M34" activeCellId="1" sqref="V56:V58 M34"/>
+      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3612,7 +3612,7 @@
   <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="V56:V58 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7262,7 +7262,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W51" activeCellId="1" sqref="V56:V58 W51"/>
+      <selection pane="topLeft" activeCell="W51" activeCellId="0" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10916,7 +10916,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T1" activeCellId="1" sqref="V56:V58 T1"/>
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11731,7 +11731,7 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V56" activeCellId="0" sqref="V56:V58"/>
+      <selection pane="topLeft" activeCell="V56" activeCellId="0" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
